--- a/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D4092B-514E-4112-950A-F052F8CA3B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3766FA-F892-44DC-B728-87A0F8D60E01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>OPEN ITEMS</t>
+  </si>
+  <si>
+    <t>strVendorOpenItemOutputPath</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\LUX-01-Vendor Open Items Report\Output\</t>
   </si>
 </sst>
 </file>
@@ -257,11 +263,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -688,7 +695,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1747,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1758,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1769,7 +1785,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>120000</v>
+        <v>10000</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1793,7 +1809,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>

--- a/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3766FA-F892-44DC-B728-87A0F8D60E01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED7A219-4199-4AD3-81D2-EB442EDD16C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -153,12 +153,6 @@
     <t>Static part of logging message. Processed Transaction failed with application exception</t>
   </si>
   <si>
-    <t>OrchestratorQueueName</t>
-  </si>
-  <si>
-    <t>KibanaDemoQueue</t>
-  </si>
-  <si>
     <t>Orchestrator Queue Name. Be sure to match this name with the one from the server.</t>
   </si>
   <si>
@@ -211,6 +205,39 @@
   </si>
   <si>
     <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\LUX-01-Vendor Open Items Report\Output\</t>
+  </si>
+  <si>
+    <t>LUX-01_VendorOpenItemsReport_SAP_Report</t>
+  </si>
+  <si>
+    <t>strVendorOpenItemsReport_SAP_Report_Queue</t>
+  </si>
+  <si>
+    <t>strReportsDetailFileName</t>
+  </si>
+  <si>
+    <t>ReportsDetail.xlsx</t>
+  </si>
+  <si>
+    <t>C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data</t>
+  </si>
+  <si>
+    <t>strReportsDetailFilePath</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>boolAddHeaders</t>
+  </si>
+  <si>
+    <t>strReportsDetailSheet</t>
+  </si>
+  <si>
+    <t>strReportsDetailRange</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
   </si>
 </sst>
 </file>
@@ -263,12 +290,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -633,81 +663,116 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2959,10 +3024,10 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED7A219-4199-4AD3-81D2-EB442EDD16C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145B22A0-E96E-41C7-8C48-14AE4234FA9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>Sheet1</t>
+  </si>
+  <si>
+    <t>strLUPConnection</t>
+  </si>
+  <si>
+    <t>Ess.Lux01VendorOpenItems.LUPConnection</t>
   </si>
 </sst>
 </file>
@@ -3030,7 +3036,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145B22A0-E96E-41C7-8C48-14AE4234FA9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833A17EF-A091-47F6-B8C1-B1D00F80937A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -189,9 +189,6 @@
     <t>FBL1N</t>
   </si>
   <si>
-    <t>strVendorMasterDataTCode</t>
-  </si>
-  <si>
     <t>ZFIN_VMAST</t>
   </si>
   <si>
@@ -201,12 +198,6 @@
     <t>OPEN ITEMS</t>
   </si>
   <si>
-    <t>strVendorOpenItemOutputPath</t>
-  </si>
-  <si>
-    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\LUX-01-Vendor Open Items Report\Output\</t>
-  </si>
-  <si>
     <t>LUX-01_VendorOpenItemsReport_SAP_Report</t>
   </si>
   <si>
@@ -244,13 +235,31 @@
   </si>
   <si>
     <t>Ess.Lux01VendorOpenItems.LUPConnection</t>
+  </si>
+  <si>
+    <t>strVendorMasterDataFMSTCode</t>
+  </si>
+  <si>
+    <t>ZRXOVENDOR</t>
+  </si>
+  <si>
+    <t>strVendorOpenItemInputPath</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\LUX-01-Vendor Open Items Report\Input\</t>
+  </si>
+  <si>
+    <t>LUX-01_LoadVendorOpenItems</t>
+  </si>
+  <si>
+    <t>strLoadVendorOpenItemsQueue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -275,6 +284,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,20 +315,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -622,7 +647,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -669,16 +694,23 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
@@ -717,84 +749,91 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>73</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="B14" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>71</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1761,8 +1800,11 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{E6FD6AF5-9690-4FA1-BD02-DD4889532695}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1856,7 +1898,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -3038,10 +3080,10 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833A17EF-A091-47F6-B8C1-B1D00F80937A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3490AB65-426A-4FE3-B0A2-95615FBDB1EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,10 +249,10 @@
     <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\LUX-01-Vendor Open Items Report\Input\</t>
   </si>
   <si>
-    <t>LUX-01_LoadVendorOpenItems</t>
-  </si>
-  <si>
     <t>strLoadVendorOpenItemsQueue</t>
+  </si>
+  <si>
+    <t>LUX-01_LoadVendorOpenItems_New</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -705,10 +705,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3490AB65-426A-4FE3-B0A2-95615FBDB1EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16E82DC-D732-4A20-A5EC-18A50333E399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -253,6 +253,54 @@
   </si>
   <si>
     <t>LUX-01_LoadVendorOpenItems_New</t>
+  </si>
+  <si>
+    <t>strCopyFromPath</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrCopyFromPathTemplate</t>
+  </si>
+  <si>
+    <t>strCopyFromName</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrCopyFromNameTemplate</t>
+  </si>
+  <si>
+    <t>strCopyToPath</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrCopyToPathTemplate</t>
+  </si>
+  <si>
+    <t>strCopyToName</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrCopyToNameTemplate</t>
+  </si>
+  <si>
+    <t>strHistoryPath</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrHistoryPath</t>
+  </si>
+  <si>
+    <t>strOutputFolderPath</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrOutputFolderPath</t>
+  </si>
+  <si>
+    <t>strTemplateSheetName</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>strTemplateRange</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
 </sst>
 </file>
@@ -647,7 +695,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -819,8 +867,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3027,7 +3089,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3086,12 +3148,54 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Open Item Reports/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16E82DC-D732-4A20-A5EC-18A50333E399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28669333-D810-4296-9B24-DC80B6827FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -180,9 +180,6 @@
     <t>strComponentRoot</t>
   </si>
   <si>
-    <t>C:\EssilorLuxottica Projects\Components\</t>
-  </si>
-  <si>
     <t>strVendorReportTCode</t>
   </si>
   <si>
@@ -204,18 +201,6 @@
     <t>strVendorOpenItemsReport_SAP_Report_Queue</t>
   </si>
   <si>
-    <t>strReportsDetailFileName</t>
-  </si>
-  <si>
-    <t>ReportsDetail.xlsx</t>
-  </si>
-  <si>
-    <t>C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data</t>
-  </si>
-  <si>
-    <t>strReportsDetailFilePath</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -252,9 +237,6 @@
     <t>strLoadVendorOpenItemsQueue</t>
   </si>
   <si>
-    <t>LUX-01_LoadVendorOpenItems_New</t>
-  </si>
-  <si>
     <t>strCopyFromPath</t>
   </si>
   <si>
@@ -301,6 +283,12 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\Components\</t>
+  </si>
+  <si>
+    <t>LUX-01_LoadVendorOpenItems</t>
   </si>
 </sst>
 </file>
@@ -367,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -377,6 +365,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -692,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -742,10 +731,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -753,10 +742,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -783,106 +772,92 @@
       <c r="A7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
-        <v>52</v>
+      <c r="B7" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
-        <v>61</v>
+      <c r="B12" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="4" t="b">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1859,14 +1834,13 @@
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{E6FD6AF5-9690-4FA1-BD02-DD4889532695}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{3C6D4CBD-282B-4665-970F-9FFB24D96308}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3089,7 +3063,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3142,58 +3116,58 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
